--- a/documents/Wykresy 1.xlsx
+++ b/documents/Wykresy 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="26835" windowHeight="13050" tabRatio="755" firstSheet="15" activeTab="24"/>
+    <workbookView xWindow="480" yWindow="330" windowWidth="26835" windowHeight="13050" tabRatio="755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -2415,15 +2415,6 @@
     <t xml:space="preserve"> logs/run_report_2013_1_22_5_40_39.txt</t>
   </si>
   <si>
-    <t>TI-k-Neighborhood-Index-Ref [min]</t>
-  </si>
-  <si>
-    <t>TI-k-Neighborhood-Index-Ref [max_min]</t>
-  </si>
-  <si>
-    <t>TI-k-Neighborhood-Index-Ref [rand]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> properties/0126__ti_k_neighborhood__karypis_reviews__sparse__500__no_cos__10__binary_placement__K5__index_access__Rrand,txt</t>
   </si>
   <si>
@@ -2431,6 +2422,15 @@
   </si>
   <si>
     <t>TI-k-Neighborhood-Index [max]</t>
+  </si>
+  <si>
+    <t>TI-k-Neighborhood-Index [min]</t>
+  </si>
+  <si>
+    <t>TI-k-Neighborhood-Index [max_min]</t>
+  </si>
+  <si>
+    <t>TI-k-Neighborhood-Index [rand]</t>
   </si>
 </sst>
 </file>
@@ -2982,8 +2982,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2991,14 +2991,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3008,6 +3005,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3095,6 +3095,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3335,11 +3336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131276800"/>
-        <c:axId val="131278720"/>
+        <c:axId val="198732416"/>
+        <c:axId val="198734592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131276800"/>
+        <c:axId val="198732416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3362,18 +3363,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131278720"/>
+        <c:crossAx val="198734592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131278720"/>
+        <c:axId val="198734592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3396,19 +3398,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.000_ ;\-#,##0.000\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131276800"/>
+        <c:crossAx val="198732416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3453,7 +3457,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3806,11 +3809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174538112"/>
-        <c:axId val="174552576"/>
+        <c:axId val="203491968"/>
+        <c:axId val="203494144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174538112"/>
+        <c:axId val="203491968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3838,19 +3841,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174552576"/>
+        <c:crossAx val="203494144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174552576"/>
+        <c:axId val="203494144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3878,21 +3880,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174538112"/>
+        <c:crossAx val="203491968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3937,7 +3937,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4290,11 +4289,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174675840"/>
-        <c:axId val="174686208"/>
+        <c:axId val="207783040"/>
+        <c:axId val="207784960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174675840"/>
+        <c:axId val="207783040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4322,19 +4321,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174686208"/>
+        <c:crossAx val="207784960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174686208"/>
+        <c:axId val="207784960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4362,21 +4360,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174675840"/>
+        <c:crossAx val="207783040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4421,7 +4417,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4774,11 +4769,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174604672"/>
-        <c:axId val="174606592"/>
+        <c:axId val="207854976"/>
+        <c:axId val="207861248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174604672"/>
+        <c:axId val="207854976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4806,19 +4801,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174606592"/>
+        <c:crossAx val="207861248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174606592"/>
+        <c:axId val="207861248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4846,21 +4840,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174604672"/>
+        <c:crossAx val="207854976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4905,7 +4897,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5258,11 +5249,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174643840"/>
-        <c:axId val="174650112"/>
+        <c:axId val="208070528"/>
+        <c:axId val="208072704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174643840"/>
+        <c:axId val="208070528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5290,19 +5281,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174650112"/>
+        <c:crossAx val="208072704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174650112"/>
+        <c:axId val="208072704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5330,21 +5320,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174643840"/>
+        <c:crossAx val="208070528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5387,11 +5375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177632384"/>
-        <c:axId val="177633920"/>
+        <c:axId val="208232832"/>
+        <c:axId val="208234368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177632384"/>
+        <c:axId val="208232832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5400,12 +5388,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177633920"/>
+        <c:crossAx val="208234368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177633920"/>
+        <c:axId val="208234368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5414,14 +5402,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177632384"/>
+        <c:crossAx val="208232832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5465,7 +5452,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5818,11 +5804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178018560"/>
-        <c:axId val="178028928"/>
+        <c:axId val="208393728"/>
+        <c:axId val="208395648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178018560"/>
+        <c:axId val="208393728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5850,19 +5836,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178028928"/>
+        <c:crossAx val="208395648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178028928"/>
+        <c:axId val="208395648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5890,14 +5875,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178018560"/>
+        <c:crossAx val="208393728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5949,7 +5933,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6302,11 +6285,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177693056"/>
-        <c:axId val="177694976"/>
+        <c:axId val="213015936"/>
+        <c:axId val="213194240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177693056"/>
+        <c:axId val="213015936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6334,19 +6317,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177694976"/>
+        <c:crossAx val="213194240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177694976"/>
+        <c:axId val="213194240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6374,14 +6356,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177693056"/>
+        <c:crossAx val="213015936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6428,7 +6409,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6781,11 +6761,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177727744"/>
-        <c:axId val="177729920"/>
+        <c:axId val="213321216"/>
+        <c:axId val="213323136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177727744"/>
+        <c:axId val="213321216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6813,19 +6793,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177729920"/>
+        <c:crossAx val="213323136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177729920"/>
+        <c:axId val="213323136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6853,14 +6832,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177727744"/>
+        <c:crossAx val="213321216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6912,7 +6890,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7265,11 +7242,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178704768"/>
-        <c:axId val="178706688"/>
+        <c:axId val="213495168"/>
+        <c:axId val="213575168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178704768"/>
+        <c:axId val="213495168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7297,19 +7274,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178706688"/>
+        <c:crossAx val="213575168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178706688"/>
+        <c:axId val="213575168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7337,14 +7313,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178704768"/>
+        <c:crossAx val="213495168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7397,7 +7372,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7582,11 +7556,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178774400"/>
-        <c:axId val="178776320"/>
+        <c:axId val="213654912"/>
+        <c:axId val="213775872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178774400"/>
+        <c:axId val="213654912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7609,19 +7583,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178776320"/>
+        <c:crossAx val="213775872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178776320"/>
+        <c:axId val="213775872"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7659,14 +7632,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178774400"/>
+        <c:crossAx val="213654912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7711,6 +7683,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7951,11 +7924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131539712"/>
-        <c:axId val="131541632"/>
+        <c:axId val="198753664"/>
+        <c:axId val="198759936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131539712"/>
+        <c:axId val="198753664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7978,18 +7951,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131541632"/>
+        <c:crossAx val="198759936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131541632"/>
+        <c:axId val="198759936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8012,19 +7986,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.000_ ;\-#,##0.000\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131539712"/>
+        <c:crossAx val="198753664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8069,7 +8045,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8254,11 +8229,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177041792"/>
-        <c:axId val="177043712"/>
+        <c:axId val="213945728"/>
+        <c:axId val="213964288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177041792"/>
+        <c:axId val="213945728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8281,19 +8256,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177043712"/>
+        <c:crossAx val="213964288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177043712"/>
+        <c:axId val="213964288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8316,21 +8290,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177041792"/>
+        <c:crossAx val="213945728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8375,7 +8347,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8548,11 +8519,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177074560"/>
-        <c:axId val="177076480"/>
+        <c:axId val="214236544"/>
+        <c:axId val="215627264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177074560"/>
+        <c:axId val="214236544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8575,19 +8546,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177076480"/>
+        <c:crossAx val="215627264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177076480"/>
+        <c:axId val="215627264"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8611,21 +8581,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177074560"/>
+        <c:crossAx val="214236544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8670,7 +8638,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8855,11 +8822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178835840"/>
-        <c:axId val="178837760"/>
+        <c:axId val="215502208"/>
+        <c:axId val="215512576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178835840"/>
+        <c:axId val="215502208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8882,19 +8849,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178837760"/>
+        <c:crossAx val="215512576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178837760"/>
+        <c:axId val="215512576"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8918,21 +8884,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178835840"/>
+        <c:crossAx val="215502208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8975,11 +8939,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180230784"/>
-        <c:axId val="180273536"/>
+        <c:axId val="215529344"/>
+        <c:axId val="215530880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180230784"/>
+        <c:axId val="215529344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8988,12 +8952,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180273536"/>
+        <c:crossAx val="215530880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180273536"/>
+        <c:axId val="215530880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9002,14 +8966,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180230784"/>
+        <c:crossAx val="215529344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9053,7 +9016,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9238,11 +9200,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180323840"/>
-        <c:axId val="180325760"/>
+        <c:axId val="215683840"/>
+        <c:axId val="215685760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180323840"/>
+        <c:axId val="215683840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9265,19 +9227,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180325760"/>
+        <c:crossAx val="215685760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180325760"/>
+        <c:axId val="215685760"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9301,14 +9262,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180323840"/>
+        <c:crossAx val="215683840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9360,7 +9320,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9545,11 +9504,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181671040"/>
-        <c:axId val="181672960"/>
+        <c:axId val="215716224"/>
+        <c:axId val="215718144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181671040"/>
+        <c:axId val="215716224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9572,19 +9531,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181672960"/>
+        <c:crossAx val="215718144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181672960"/>
+        <c:axId val="215718144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9622,7 +9580,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181671040"/>
+        <c:crossAx val="215716224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9674,7 +9632,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9859,11 +9816,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181715712"/>
-        <c:axId val="181717632"/>
+        <c:axId val="47194112"/>
+        <c:axId val="47196032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181715712"/>
+        <c:axId val="47194112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9886,19 +9843,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181717632"/>
+        <c:crossAx val="47196032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181717632"/>
+        <c:axId val="47196032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9922,14 +9878,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181715712"/>
+        <c:crossAx val="47194112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9981,7 +9936,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10154,11 +10108,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181752192"/>
-        <c:axId val="181754112"/>
+        <c:axId val="47242624"/>
+        <c:axId val="181470720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181752192"/>
+        <c:axId val="47242624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10181,19 +10135,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181754112"/>
+        <c:crossAx val="181470720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181754112"/>
+        <c:axId val="181470720"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10217,14 +10170,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181752192"/>
+        <c:crossAx val="47242624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10404,11 +10356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182144384"/>
-        <c:axId val="182150656"/>
+        <c:axId val="47295104"/>
+        <c:axId val="47297280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182144384"/>
+        <c:axId val="47295104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10437,12 +10389,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182150656"/>
+        <c:crossAx val="47297280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182150656"/>
+        <c:axId val="47297280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10476,7 +10428,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182144384"/>
+        <c:crossAx val="47295104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10655,11 +10607,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182172288"/>
-        <c:axId val="182199040"/>
+        <c:axId val="220010368"/>
+        <c:axId val="220016640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182172288"/>
+        <c:axId val="220010368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10688,12 +10640,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182199040"/>
+        <c:crossAx val="220016640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182199040"/>
+        <c:axId val="220016640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10722,7 +10674,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182172288"/>
+        <c:crossAx val="220010368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10773,6 +10725,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11013,11 +10966,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131560960"/>
-        <c:axId val="131562880"/>
+        <c:axId val="198787456"/>
+        <c:axId val="198789376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131560960"/>
+        <c:axId val="198787456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11040,18 +10993,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131562880"/>
+        <c:crossAx val="198789376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131562880"/>
+        <c:axId val="198789376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11074,19 +11028,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.000_ ;\-#,##0.000\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131560960"/>
+        <c:crossAx val="198787456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11259,11 +11215,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182237056"/>
-        <c:axId val="182243328"/>
+        <c:axId val="220038272"/>
+        <c:axId val="220040192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182237056"/>
+        <c:axId val="220038272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11292,12 +11248,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182243328"/>
+        <c:crossAx val="220040192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182243328"/>
+        <c:axId val="220040192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11326,7 +11282,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182237056"/>
+        <c:crossAx val="220038272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11505,11 +11461,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182592640"/>
-        <c:axId val="182594560"/>
+        <c:axId val="220090752"/>
+        <c:axId val="220092672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182592640"/>
+        <c:axId val="220090752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11538,12 +11494,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182594560"/>
+        <c:crossAx val="220092672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182594560"/>
+        <c:axId val="220092672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11572,7 +11528,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182592640"/>
+        <c:crossAx val="220090752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11621,11 +11577,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182623616"/>
-        <c:axId val="190317696"/>
+        <c:axId val="220121728"/>
+        <c:axId val="220123520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182623616"/>
+        <c:axId val="220121728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11634,12 +11590,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190317696"/>
+        <c:crossAx val="220123520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190317696"/>
+        <c:axId val="220123520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11648,7 +11604,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182623616"/>
+        <c:crossAx val="220121728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11826,11 +11782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190363136"/>
-        <c:axId val="190365056"/>
+        <c:axId val="220152576"/>
+        <c:axId val="220154496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190363136"/>
+        <c:axId val="220152576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11859,12 +11815,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190365056"/>
+        <c:crossAx val="220154496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190365056"/>
+        <c:axId val="220154496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11893,7 +11849,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190363136"/>
+        <c:crossAx val="220152576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12073,11 +12029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190390656"/>
-        <c:axId val="190392576"/>
+        <c:axId val="220188032"/>
+        <c:axId val="220194304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190390656"/>
+        <c:axId val="220188032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12106,12 +12062,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190392576"/>
+        <c:crossAx val="220194304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190392576"/>
+        <c:axId val="220194304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12145,7 +12101,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190390656"/>
+        <c:crossAx val="220188032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12325,11 +12281,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190405632"/>
-        <c:axId val="190428288"/>
+        <c:axId val="221264128"/>
+        <c:axId val="221270400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190405632"/>
+        <c:axId val="221264128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12358,12 +12314,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190428288"/>
+        <c:crossAx val="221270400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190428288"/>
+        <c:axId val="221270400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12392,7 +12348,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190405632"/>
+        <c:crossAx val="221264128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12572,11 +12528,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="192948096"/>
-        <c:axId val="192954368"/>
+        <c:axId val="221287552"/>
+        <c:axId val="221289472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192948096"/>
+        <c:axId val="221287552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12605,12 +12561,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192954368"/>
+        <c:crossAx val="221289472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192954368"/>
+        <c:axId val="221289472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12639,7 +12595,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192948096"/>
+        <c:crossAx val="221287552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12795,11 +12751,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178422912"/>
-        <c:axId val="178424832"/>
+        <c:axId val="221831552"/>
+        <c:axId val="221833472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178422912"/>
+        <c:axId val="221831552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12828,12 +12784,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178424832"/>
+        <c:crossAx val="221833472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178424832"/>
+        <c:axId val="221833472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12862,7 +12818,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178422912"/>
+        <c:crossAx val="221831552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13023,11 +12979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178459008"/>
-        <c:axId val="178460928"/>
+        <c:axId val="221859200"/>
+        <c:axId val="221869568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178459008"/>
+        <c:axId val="221859200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13056,12 +13012,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178460928"/>
+        <c:crossAx val="221869568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178460928"/>
+        <c:axId val="221869568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13090,7 +13046,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178459008"/>
+        <c:crossAx val="221859200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13269,11 +13225,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178478464"/>
-        <c:axId val="178488832"/>
+        <c:axId val="221891200"/>
+        <c:axId val="222233344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178478464"/>
+        <c:axId val="221891200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13302,12 +13258,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178488832"/>
+        <c:crossAx val="222233344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178488832"/>
+        <c:axId val="222233344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13336,7 +13292,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178478464"/>
+        <c:crossAx val="221891200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13387,6 +13343,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -13627,11 +13584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175651072"/>
-        <c:axId val="175653248"/>
+        <c:axId val="198800512"/>
+        <c:axId val="198802432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175651072"/>
+        <c:axId val="198800512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13654,18 +13611,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175653248"/>
+        <c:crossAx val="198802432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175653248"/>
+        <c:axId val="198802432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13688,19 +13646,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.000_ ;\-#,##0.000\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175651072"/>
+        <c:crossAx val="198800512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13873,11 +13833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178518656"/>
-        <c:axId val="178594560"/>
+        <c:axId val="222250880"/>
+        <c:axId val="222261248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178518656"/>
+        <c:axId val="222250880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13906,12 +13866,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178594560"/>
+        <c:crossAx val="222261248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178594560"/>
+        <c:axId val="222261248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13940,7 +13900,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178518656"/>
+        <c:crossAx val="222250880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13989,11 +13949,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191579264"/>
-        <c:axId val="191580800"/>
+        <c:axId val="222282112"/>
+        <c:axId val="222283648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191579264"/>
+        <c:axId val="222282112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14002,12 +13962,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191580800"/>
+        <c:crossAx val="222283648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191580800"/>
+        <c:axId val="222283648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14016,7 +13976,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191579264"/>
+        <c:crossAx val="222282112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14176,11 +14136,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191597568"/>
-        <c:axId val="191612032"/>
+        <c:axId val="222370048"/>
+        <c:axId val="222302592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191597568"/>
+        <c:axId val="222370048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14209,12 +14169,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191612032"/>
+        <c:crossAx val="222302592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191612032"/>
+        <c:axId val="222302592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14243,7 +14203,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191597568"/>
+        <c:crossAx val="222370048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14399,11 +14359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191653760"/>
-        <c:axId val="191660032"/>
+        <c:axId val="222348416"/>
+        <c:axId val="222350336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191653760"/>
+        <c:axId val="222348416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14432,12 +14392,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191660032"/>
+        <c:crossAx val="222350336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191660032"/>
+        <c:axId val="222350336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14466,7 +14426,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191653760"/>
+        <c:crossAx val="222348416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14646,11 +14606,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191693568"/>
-        <c:axId val="191695488"/>
+        <c:axId val="222412800"/>
+        <c:axId val="222414720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191693568"/>
+        <c:axId val="222412800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14679,12 +14639,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191695488"/>
+        <c:crossAx val="222414720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191695488"/>
+        <c:axId val="222414720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14713,7 +14673,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191693568"/>
+        <c:crossAx val="222412800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14893,11 +14853,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191720832"/>
-        <c:axId val="191727104"/>
+        <c:axId val="222444160"/>
+        <c:axId val="222458624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191720832"/>
+        <c:axId val="222444160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14926,12 +14886,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191727104"/>
+        <c:crossAx val="222458624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191727104"/>
+        <c:axId val="222458624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14960,7 +14920,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191720832"/>
+        <c:crossAx val="222444160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15140,11 +15100,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193313408"/>
-        <c:axId val="193315584"/>
+        <c:axId val="225331072"/>
+        <c:axId val="225337344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193313408"/>
+        <c:axId val="225331072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15173,12 +15133,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193315584"/>
+        <c:crossAx val="225337344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193315584"/>
+        <c:axId val="225337344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15207,7 +15167,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193313408"/>
+        <c:crossAx val="225331072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15386,11 +15346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193406848"/>
-        <c:axId val="193409024"/>
+        <c:axId val="225375360"/>
+        <c:axId val="225377280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193406848"/>
+        <c:axId val="225375360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15419,12 +15379,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193409024"/>
+        <c:crossAx val="225377280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193409024"/>
+        <c:axId val="225377280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15453,7 +15413,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193406848"/>
+        <c:crossAx val="225375360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15632,11 +15592,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193447040"/>
-        <c:axId val="193448960"/>
+        <c:axId val="225407360"/>
+        <c:axId val="225409280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193447040"/>
+        <c:axId val="225407360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15665,12 +15625,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193448960"/>
+        <c:crossAx val="225409280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193448960"/>
+        <c:axId val="225409280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15699,7 +15659,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193447040"/>
+        <c:crossAx val="225407360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15878,11 +15838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193364352"/>
-        <c:axId val="193366272"/>
+        <c:axId val="225435008"/>
+        <c:axId val="225117696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193364352"/>
+        <c:axId val="225435008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15911,12 +15871,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193366272"/>
+        <c:crossAx val="225117696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193366272"/>
+        <c:axId val="225117696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15945,7 +15905,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193364352"/>
+        <c:crossAx val="225435008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15994,11 +15954,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175671936"/>
-        <c:axId val="176247168"/>
+        <c:axId val="198823296"/>
+        <c:axId val="198825088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175671936"/>
+        <c:axId val="198823296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16007,12 +15967,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176247168"/>
+        <c:crossAx val="198825088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176247168"/>
+        <c:axId val="198825088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16021,13 +15981,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175671936"/>
+        <c:crossAx val="198823296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -16069,11 +16030,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193395328"/>
-        <c:axId val="176882048"/>
+        <c:axId val="225146752"/>
+        <c:axId val="225148288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193395328"/>
+        <c:axId val="225146752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16082,12 +16043,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176882048"/>
+        <c:crossAx val="225148288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176882048"/>
+        <c:axId val="225148288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16096,7 +16057,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193395328"/>
+        <c:crossAx val="225146752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16274,11 +16235,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="176915200"/>
-        <c:axId val="176917120"/>
+        <c:axId val="215166976"/>
+        <c:axId val="215168896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="176915200"/>
+        <c:axId val="215166976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16307,12 +16268,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176917120"/>
+        <c:crossAx val="215168896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176917120"/>
+        <c:axId val="215168896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16341,7 +16302,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176915200"/>
+        <c:crossAx val="215166976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16521,11 +16482,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193092992"/>
-        <c:axId val="193099264"/>
+        <c:axId val="215198336"/>
+        <c:axId val="215200512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193092992"/>
+        <c:axId val="215198336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16554,12 +16515,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193099264"/>
+        <c:crossAx val="215200512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193099264"/>
+        <c:axId val="215200512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16588,7 +16549,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193092992"/>
+        <c:crossAx val="215198336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16768,11 +16729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193116416"/>
-        <c:axId val="193122688"/>
+        <c:axId val="215307776"/>
+        <c:axId val="215309696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193116416"/>
+        <c:axId val="215307776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16801,12 +16762,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193122688"/>
+        <c:crossAx val="215309696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193122688"/>
+        <c:axId val="215309696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16835,7 +16796,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193116416"/>
+        <c:crossAx val="215307776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17015,11 +16976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193229952"/>
-        <c:axId val="193231872"/>
+        <c:axId val="215327104"/>
+        <c:axId val="215329024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193229952"/>
+        <c:axId val="215327104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17048,12 +17009,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193231872"/>
+        <c:crossAx val="215329024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193231872"/>
+        <c:axId val="215329024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17082,7 +17043,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193229952"/>
+        <c:crossAx val="215327104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17238,11 +17199,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195649920"/>
-        <c:axId val="195651840"/>
+        <c:axId val="215448960"/>
+        <c:axId val="215467520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195649920"/>
+        <c:axId val="215448960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17271,12 +17232,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195651840"/>
+        <c:crossAx val="215467520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195651840"/>
+        <c:axId val="215467520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17305,7 +17266,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195649920"/>
+        <c:crossAx val="215448960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17466,11 +17427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195689856"/>
-        <c:axId val="195696128"/>
+        <c:axId val="226253440"/>
+        <c:axId val="226259712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195689856"/>
+        <c:axId val="226253440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17499,12 +17460,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195696128"/>
+        <c:crossAx val="226259712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195696128"/>
+        <c:axId val="226259712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17533,7 +17494,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195689856"/>
+        <c:crossAx val="226253440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17712,11 +17673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195717760"/>
-        <c:axId val="195740416"/>
+        <c:axId val="226289536"/>
+        <c:axId val="226299904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195717760"/>
+        <c:axId val="226289536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17745,12 +17706,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195740416"/>
+        <c:crossAx val="226299904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195740416"/>
+        <c:axId val="226299904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17779,7 +17740,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195717760"/>
+        <c:crossAx val="226289536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17958,11 +17919,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195860352"/>
-        <c:axId val="195862528"/>
+        <c:axId val="226329728"/>
+        <c:axId val="226331648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195860352"/>
+        <c:axId val="226329728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17991,12 +17952,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195862528"/>
+        <c:crossAx val="226331648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195862528"/>
+        <c:axId val="226331648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18025,7 +17986,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195860352"/>
+        <c:crossAx val="226329728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18074,11 +18035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195977600"/>
-        <c:axId val="195979136"/>
+        <c:axId val="226356608"/>
+        <c:axId val="225449088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195977600"/>
+        <c:axId val="226356608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18087,12 +18048,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195979136"/>
+        <c:crossAx val="225449088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195979136"/>
+        <c:axId val="225449088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18101,7 +18062,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195977600"/>
+        <c:crossAx val="226356608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18151,6 +18112,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -18391,11 +18353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="176290048"/>
-        <c:axId val="176292224"/>
+        <c:axId val="198859776"/>
+        <c:axId val="198882432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="176290048"/>
+        <c:axId val="198859776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18418,18 +18380,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176292224"/>
+        <c:crossAx val="198882432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176292224"/>
+        <c:axId val="198882432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18452,13 +18415,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.000_ ;\-#,##0.000\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176290048"/>
+        <c:crossAx val="198859776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18620,11 +18584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195991808"/>
-        <c:axId val="196034944"/>
+        <c:axId val="225523200"/>
+        <c:axId val="225525120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195991808"/>
+        <c:axId val="225523200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18653,12 +18617,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196034944"/>
+        <c:crossAx val="225525120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196034944"/>
+        <c:axId val="225525120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18687,7 +18651,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195991808"/>
+        <c:crossAx val="225523200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18843,11 +18807,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196060288"/>
-        <c:axId val="196062208"/>
+        <c:axId val="225554816"/>
+        <c:axId val="225556736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196060288"/>
+        <c:axId val="225554816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18876,12 +18840,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196062208"/>
+        <c:crossAx val="225556736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196062208"/>
+        <c:axId val="225556736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18910,7 +18874,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196060288"/>
+        <c:crossAx val="225554816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19090,11 +19054,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196096000"/>
-        <c:axId val="196097920"/>
+        <c:axId val="225664000"/>
+        <c:axId val="225674368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196096000"/>
+        <c:axId val="225664000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19123,12 +19087,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196097920"/>
+        <c:crossAx val="225674368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196097920"/>
+        <c:axId val="225674368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19157,7 +19121,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196096000"/>
+        <c:crossAx val="225664000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19337,11 +19301,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196119168"/>
-        <c:axId val="196133632"/>
+        <c:axId val="225695616"/>
+        <c:axId val="225701888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196119168"/>
+        <c:axId val="225695616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19370,12 +19334,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196133632"/>
+        <c:crossAx val="225701888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196133632"/>
+        <c:axId val="225701888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19404,7 +19368,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196119168"/>
+        <c:crossAx val="225695616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19456,7 +19420,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -19585,11 +19548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197322624"/>
-        <c:axId val="197324800"/>
+        <c:axId val="226681984"/>
+        <c:axId val="226683904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197322624"/>
+        <c:axId val="226681984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19612,19 +19575,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197324800"/>
+        <c:crossAx val="226683904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197324800"/>
+        <c:axId val="226683904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19647,21 +19609,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.000_ ;\-#,##0.000\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197322624"/>
+        <c:crossAx val="226681984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -19706,7 +19666,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -19835,11 +19794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197362816"/>
-        <c:axId val="197364736"/>
+        <c:axId val="226795904"/>
+        <c:axId val="226797824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197362816"/>
+        <c:axId val="226795904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19862,19 +19821,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197364736"/>
+        <c:crossAx val="226797824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197364736"/>
+        <c:axId val="226797824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19897,21 +19855,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.000_ ;\-#,##0.000\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197362816"/>
+        <c:crossAx val="226795904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -19956,7 +19912,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -20085,11 +20040,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198713728"/>
-        <c:axId val="198715648"/>
+        <c:axId val="226823552"/>
+        <c:axId val="226838016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198713728"/>
+        <c:axId val="226823552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20112,19 +20067,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198715648"/>
+        <c:crossAx val="226838016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198715648"/>
+        <c:axId val="226838016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20147,21 +20101,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.000_ ;\-#,##0.000\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198713728"/>
+        <c:crossAx val="226823552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -20206,7 +20158,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -20335,11 +20286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198745472"/>
-        <c:axId val="198747648"/>
+        <c:axId val="226851456"/>
+        <c:axId val="226865920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198745472"/>
+        <c:axId val="226851456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20362,19 +20313,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198747648"/>
+        <c:crossAx val="226865920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198747648"/>
+        <c:axId val="226865920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20397,21 +20347,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.000_ ;\-#,##0.000\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198745472"/>
+        <c:crossAx val="226851456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -20454,11 +20402,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198453120"/>
-        <c:axId val="198454656"/>
+        <c:axId val="226374784"/>
+        <c:axId val="226376320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198453120"/>
+        <c:axId val="226374784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20467,12 +20415,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198454656"/>
+        <c:crossAx val="226376320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198454656"/>
+        <c:axId val="226376320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20481,7 +20429,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198453120"/>
+        <c:crossAx val="226374784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20661,11 +20609,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198529024"/>
-        <c:axId val="198530944"/>
+        <c:axId val="226409472"/>
+        <c:axId val="226411648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198529024"/>
+        <c:axId val="226409472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20695,12 +20643,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198530944"/>
+        <c:crossAx val="226411648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198530944"/>
+        <c:axId val="226411648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20730,7 +20678,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198529024"/>
+        <c:crossAx val="226409472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20782,6 +20730,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -21022,11 +20971,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="176331008"/>
-        <c:axId val="176345472"/>
+        <c:axId val="198921600"/>
+        <c:axId val="198927872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="176331008"/>
+        <c:axId val="198921600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21049,18 +20998,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176345472"/>
+        <c:crossAx val="198927872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176345472"/>
+        <c:axId val="198927872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21083,13 +21033,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.000_ ;\-#,##0.000\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176331008"/>
+        <c:crossAx val="198921600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21270,11 +21221,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198564480"/>
-        <c:axId val="198570752"/>
+        <c:axId val="226449280"/>
+        <c:axId val="226459648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198564480"/>
+        <c:axId val="226449280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21304,12 +21255,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198570752"/>
+        <c:crossAx val="226459648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198570752"/>
+        <c:axId val="226459648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21339,7 +21290,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198564480"/>
+        <c:crossAx val="226449280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21520,11 +21471,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198608384"/>
-        <c:axId val="198610304"/>
+        <c:axId val="226484992"/>
+        <c:axId val="226486912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198608384"/>
+        <c:axId val="226484992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21554,12 +21505,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198610304"/>
+        <c:crossAx val="226486912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198610304"/>
+        <c:axId val="226486912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21589,7 +21540,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198608384"/>
+        <c:crossAx val="226484992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21770,11 +21721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198644096"/>
-        <c:axId val="198646016"/>
+        <c:axId val="226594176"/>
+        <c:axId val="226596352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198644096"/>
+        <c:axId val="226594176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21804,12 +21755,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198646016"/>
+        <c:crossAx val="226596352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198646016"/>
+        <c:axId val="226596352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21839,7 +21790,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198644096"/>
+        <c:crossAx val="226594176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21891,6 +21842,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -22131,11 +22083,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177181440"/>
-        <c:axId val="177183360"/>
+        <c:axId val="200019968"/>
+        <c:axId val="200021888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177181440"/>
+        <c:axId val="200019968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22158,18 +22110,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177183360"/>
+        <c:crossAx val="200021888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177183360"/>
+        <c:axId val="200021888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22192,13 +22145,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.000_ ;\-#,##0.000\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177181440"/>
+        <c:crossAx val="200019968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22250,6 +22204,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -22490,11 +22445,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177542272"/>
-        <c:axId val="177544192"/>
+        <c:axId val="201068928"/>
+        <c:axId val="201070848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177542272"/>
+        <c:axId val="201068928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22517,18 +22472,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177544192"/>
+        <c:crossAx val="201070848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177544192"/>
+        <c:axId val="201070848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22551,13 +22507,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.000_ ;\-#,##0.000\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177542272"/>
+        <c:crossAx val="201068928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22583,7 +22540,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22660,7 +22617,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23994,7 +23951,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9299222" cy="6074833"/>
+    <xdr:ext cx="9300882" cy="6072187"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1"/>
@@ -55356,10 +55313,10 @@
         <v>37</v>
       </c>
       <c r="AG291" s="5" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="AH291" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="292" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -58936,7 +58893,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -58958,7 +58915,7 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="18"/>
       <c r="C2" s="17" t="s">
         <v>264</v>
@@ -58992,7 +58949,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="18"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -59006,7 +58963,7 @@
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>261</v>
       </c>
       <c r="B4" s="6">
@@ -59048,7 +59005,7 @@
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="6">
         <v>2000</v>
       </c>
@@ -59087,7 +59044,7 @@
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6">
         <v>4000</v>
       </c>
@@ -59126,7 +59083,7 @@
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6">
         <v>6000</v>
       </c>
@@ -59165,7 +59122,7 @@
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6">
         <v>8000</v>
       </c>
@@ -59204,7 +59161,7 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>269</v>
       </c>
       <c r="B9" s="6">
@@ -59246,7 +59203,7 @@
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6">
         <v>1000</v>
       </c>
@@ -59286,7 +59243,7 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6">
         <v>2000</v>
       </c>
@@ -59325,7 +59282,7 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6">
         <v>3000</v>
       </c>
@@ -59364,7 +59321,7 @@
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6">
         <v>4000</v>
       </c>
@@ -59403,7 +59360,7 @@
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>270</v>
       </c>
       <c r="B14" s="6">
@@ -59445,7 +59402,7 @@
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6">
         <v>50000</v>
       </c>
@@ -59485,7 +59442,7 @@
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6">
         <v>100000</v>
       </c>
@@ -59525,7 +59482,7 @@
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6">
         <v>300000</v>
       </c>
@@ -59565,7 +59522,7 @@
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="6">
         <v>500000</v>
       </c>
@@ -59605,7 +59562,7 @@
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>271</v>
       </c>
       <c r="B19" s="6">
@@ -59647,7 +59604,7 @@
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="6">
         <v>30000</v>
       </c>
@@ -59687,7 +59644,7 @@
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="6">
         <v>50000</v>
       </c>
@@ -59727,7 +59684,7 @@
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="6">
         <v>70000</v>
       </c>
@@ -59767,7 +59724,7 @@
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="6">
         <v>90000</v>
       </c>
@@ -59807,6 +59764,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="H2:H3"/>
@@ -59823,8 +59782,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -59867,7 +59824,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -59885,7 +59842,7 @@
       <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="18"/>
       <c r="C2" s="17" t="s">
         <v>264</v>
@@ -59907,7 +59864,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="18"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -59917,7 +59874,7 @@
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>261</v>
       </c>
       <c r="B4" s="6">
@@ -59945,7 +59902,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="6">
         <v>2000</v>
       </c>
@@ -59971,7 +59928,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6">
         <v>4000</v>
       </c>
@@ -59997,7 +59954,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6">
         <v>6000</v>
       </c>
@@ -60023,7 +59980,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6">
         <v>8000</v>
       </c>
@@ -60049,7 +60006,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>269</v>
       </c>
       <c r="B9" s="6">
@@ -60077,7 +60034,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6">
         <v>1000</v>
       </c>
@@ -60103,7 +60060,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6">
         <v>2000</v>
       </c>
@@ -60129,7 +60086,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6">
         <v>3000</v>
       </c>
@@ -60155,7 +60112,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6">
         <v>4000</v>
       </c>
@@ -60181,7 +60138,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>270</v>
       </c>
       <c r="B14" s="6">
@@ -60209,7 +60166,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6">
         <v>50000</v>
       </c>
@@ -60235,7 +60192,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6">
         <v>100000</v>
       </c>
@@ -60261,7 +60218,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6">
         <v>300000</v>
       </c>
@@ -60287,7 +60244,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="6">
         <v>500000</v>
       </c>
@@ -60313,7 +60270,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>271</v>
       </c>
       <c r="B19" s="6">
@@ -60343,7 +60300,7 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="6">
         <v>30000</v>
       </c>
@@ -60371,7 +60328,7 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="6">
         <v>50000</v>
       </c>
@@ -60399,7 +60356,7 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="6">
         <v>70000</v>
       </c>
@@ -60427,7 +60384,7 @@
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="6">
         <v>90000</v>
       </c>
@@ -60456,6 +60413,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A1:A3"/>
@@ -60465,11 +60427,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -60512,7 +60469,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -60530,7 +60487,7 @@
       <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="18"/>
       <c r="C2" s="17" t="s">
         <v>264</v>
@@ -60552,7 +60509,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="18"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -60562,7 +60519,7 @@
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>261</v>
       </c>
       <c r="B4" s="6">
@@ -60590,7 +60547,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="6">
         <v>2000</v>
       </c>
@@ -60615,7 +60572,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6">
         <v>4000</v>
       </c>
@@ -60640,7 +60597,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6">
         <v>6000</v>
       </c>
@@ -60665,7 +60622,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6">
         <v>8000</v>
       </c>
@@ -60690,7 +60647,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>269</v>
       </c>
       <c r="B9" s="6">
@@ -60718,7 +60675,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6">
         <v>1000</v>
       </c>
@@ -60744,7 +60701,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6">
         <v>2000</v>
       </c>
@@ -60769,7 +60726,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6">
         <v>3000</v>
       </c>
@@ -60794,7 +60751,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6">
         <v>4000</v>
       </c>
@@ -60819,7 +60776,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>270</v>
       </c>
       <c r="B14" s="6">
@@ -60847,7 +60804,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6">
         <v>50000</v>
       </c>
@@ -60873,7 +60830,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6">
         <v>100000</v>
       </c>
@@ -60899,7 +60856,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6">
         <v>300000</v>
       </c>
@@ -60925,7 +60882,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="6">
         <v>500000</v>
       </c>
@@ -60951,7 +60908,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>271</v>
       </c>
       <c r="B19" s="6">
@@ -60981,7 +60938,7 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="6">
         <v>30000</v>
       </c>
@@ -61009,7 +60966,7 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="6">
         <v>50000</v>
       </c>
@@ -61037,7 +60994,7 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="6">
         <v>70000</v>
       </c>
@@ -61065,7 +61022,7 @@
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="6">
         <v>90000</v>
       </c>
@@ -61094,6 +61051,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -61103,11 +61065,6 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -61151,18 +61108,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>411</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="19" t="s">
         <v>401</v>
       </c>
       <c r="G1" s="20"/>
@@ -61171,7 +61128,7 @@
       <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="18"/>
       <c r="C2" s="17" t="s">
         <v>264</v>
@@ -61199,7 +61156,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="18"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -61211,7 +61168,7 @@
       <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>261</v>
       </c>
       <c r="B4" s="6">
@@ -61245,7 +61202,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="6">
         <v>2000</v>
       </c>
@@ -61277,7 +61234,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6">
         <v>4000</v>
       </c>
@@ -61309,7 +61266,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6">
         <v>6000</v>
       </c>
@@ -61341,7 +61298,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6">
         <v>8000</v>
       </c>
@@ -61373,7 +61330,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>269</v>
       </c>
       <c r="B9" s="6">
@@ -61407,7 +61364,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6">
         <v>1000</v>
       </c>
@@ -61439,7 +61396,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6">
         <v>2000</v>
       </c>
@@ -61471,7 +61428,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6">
         <v>3000</v>
       </c>
@@ -61503,7 +61460,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6">
         <v>4000</v>
       </c>
@@ -61535,7 +61492,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>270</v>
       </c>
       <c r="B14" s="6">
@@ -61569,7 +61526,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6">
         <v>50000</v>
       </c>
@@ -61601,7 +61558,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6">
         <v>100000</v>
       </c>
@@ -61633,7 +61590,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6">
         <v>300000</v>
       </c>
@@ -61665,7 +61622,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="6">
         <v>500000</v>
       </c>
@@ -61697,7 +61654,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>271</v>
       </c>
       <c r="B19" s="6">
@@ -61731,7 +61688,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="6">
         <v>30000</v>
       </c>
@@ -61763,7 +61720,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="6">
         <v>50000</v>
       </c>
@@ -61795,7 +61752,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="6">
         <v>70000</v>
       </c>
@@ -61827,7 +61784,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="6">
         <v>90000</v>
       </c>
@@ -61860,22 +61817,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -61910,134 +61867,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="L1" s="21" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="L1" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="22" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="24" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="24" t="s">
+      <c r="T2" s="21"/>
+      <c r="U2" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="23" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>261</v>
       </c>
       <c r="B4" s="1">
@@ -62061,7 +62018,7 @@
       <c r="H4" s="2">
         <v>1E-3</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="24" t="s">
         <v>261</v>
       </c>
       <c r="M4" s="1">
@@ -62108,7 +62065,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1">
         <v>2000</v>
       </c>
@@ -62130,7 +62087,7 @@
       <c r="H5" s="2">
         <v>6.3333299999999999E-3</v>
       </c>
-      <c r="L5" s="21"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="1">
         <v>2000</v>
       </c>
@@ -62175,7 +62132,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1">
         <v>4000</v>
       </c>
@@ -62197,7 +62154,7 @@
       <c r="H6" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L6" s="21"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="1">
         <v>4000</v>
       </c>
@@ -62242,7 +62199,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="1">
         <v>6000</v>
       </c>
@@ -62264,7 +62221,7 @@
       <c r="H7" s="2">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="L7" s="21"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="1">
         <v>6000</v>
       </c>
@@ -62309,7 +62266,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1">
         <v>8000</v>
       </c>
@@ -62331,7 +62288,7 @@
       <c r="H8" s="2">
         <v>0.19366700000000001</v>
       </c>
-      <c r="L8" s="21"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="1">
         <v>8000</v>
       </c>
@@ -62376,7 +62333,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="24" t="s">
         <v>271</v>
       </c>
       <c r="B9" s="1">
@@ -62400,7 +62357,7 @@
       <c r="H9" s="2">
         <v>0.11933299999999999</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="24" t="s">
         <v>271</v>
       </c>
       <c r="M9" s="1">
@@ -62447,7 +62404,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="1">
         <v>30000</v>
       </c>
@@ -62469,7 +62426,7 @@
       <c r="H10" s="2">
         <v>0.93200000000000005</v>
       </c>
-      <c r="L10" s="21"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="1">
         <v>30000</v>
       </c>
@@ -62516,7 +62473,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="1">
         <v>50000</v>
       </c>
@@ -62538,7 +62495,7 @@
       <c r="H11" s="2">
         <v>2.0516700000000001</v>
       </c>
-      <c r="L11" s="21"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="1">
         <v>50000</v>
       </c>
@@ -62585,7 +62542,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="1">
         <v>70000</v>
       </c>
@@ -62607,7 +62564,7 @@
       <c r="H12" s="2">
         <v>3.9203299999999999</v>
       </c>
-      <c r="L12" s="21"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="1">
         <v>70000</v>
       </c>
@@ -62642,7 +62599,7 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="1">
         <v>90000</v>
       </c>
@@ -62664,7 +62621,7 @@
       <c r="H13" s="1">
         <v>3.7463299999999999</v>
       </c>
-      <c r="L13" s="21"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="1">
         <v>90000</v>
       </c>
@@ -62704,21 +62661,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="L1:L3"/>
@@ -62734,6 +62676,21 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -62743,8 +62700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -62776,43 +62733,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>745</v>
+      <c r="C1" s="19" t="s">
+        <v>748</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="16" t="s">
-        <v>746</v>
+      <c r="H1" s="19" t="s">
+        <v>749</v>
       </c>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
-      <c r="M1" s="16" t="s">
-        <v>747</v>
+      <c r="M1" s="19" t="s">
+        <v>750</v>
       </c>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
-      <c r="R1" s="16" t="s">
-        <v>750</v>
-      </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
+      <c r="R1" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="18"/>
       <c r="C2" s="17" t="s">
         <v>264</v>
@@ -62876,7 +62833,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="18"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -62900,7 +62857,7 @@
       <c r="V3" s="15"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>261</v>
       </c>
       <c r="B4" s="6">
@@ -62972,7 +62929,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="6">
         <v>2000</v>
       </c>
@@ -63042,7 +62999,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6">
         <v>4000</v>
       </c>
@@ -63112,7 +63069,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6">
         <v>6000</v>
       </c>
@@ -63182,7 +63139,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6">
         <v>8000</v>
       </c>
@@ -63252,7 +63209,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>269</v>
       </c>
       <c r="B9" s="6">
@@ -63324,7 +63281,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6">
         <v>1000</v>
       </c>
@@ -63394,7 +63351,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6">
         <v>2000</v>
       </c>
@@ -63464,7 +63421,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6">
         <v>3000</v>
       </c>
@@ -63534,7 +63491,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6">
         <v>4000</v>
       </c>
@@ -63604,7 +63561,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>270</v>
       </c>
       <c r="B14" s="6">
@@ -63676,7 +63633,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6">
         <v>50000</v>
       </c>
@@ -63746,7 +63703,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6">
         <v>100000</v>
       </c>
@@ -63816,7 +63773,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6">
         <v>300000</v>
       </c>
@@ -63886,7 +63843,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="6">
         <v>500000</v>
       </c>
@@ -63956,7 +63913,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>271</v>
       </c>
       <c r="B19" s="6">
@@ -64028,7 +63985,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="6">
         <v>30000</v>
       </c>
@@ -64098,7 +64055,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="6">
         <v>50000</v>
       </c>
@@ -64168,7 +64125,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="6">
         <v>70000</v>
       </c>
@@ -64238,7 +64195,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="6">
         <v>90000</v>
       </c>
@@ -64309,6 +64266,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>
@@ -64325,20 +64296,6 @@
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64396,27 +64353,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>453</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="19" t="s">
         <v>454</v>
       </c>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="19" t="s">
         <v>455</v>
       </c>
       <c r="N1" s="20"/>
@@ -64425,7 +64382,7 @@
       <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="18"/>
       <c r="C2" s="17" t="s">
         <v>264</v>
@@ -64474,7 +64431,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="18"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -64493,7 +64450,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>261</v>
       </c>
       <c r="B4" s="6">
@@ -64549,7 +64506,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="6">
         <v>2000</v>
       </c>
@@ -64603,7 +64560,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6">
         <v>4000</v>
       </c>
@@ -64657,7 +64614,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6">
         <v>6000</v>
       </c>
@@ -64711,7 +64668,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6">
         <v>8000</v>
       </c>
@@ -64765,7 +64722,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>269</v>
       </c>
       <c r="B9" s="6">
@@ -64821,7 +64778,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6">
         <v>1000</v>
       </c>
@@ -64875,7 +64832,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6">
         <v>2000</v>
       </c>
@@ -64929,7 +64886,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6">
         <v>3000</v>
       </c>
@@ -64983,7 +64940,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6">
         <v>4000</v>
       </c>
@@ -65037,7 +64994,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>270</v>
       </c>
       <c r="B14" s="6">
@@ -65093,7 +65050,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6">
         <v>50000</v>
       </c>
@@ -65147,7 +65104,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6">
         <v>100000</v>
       </c>
@@ -65201,7 +65158,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6">
         <v>300000</v>
       </c>
@@ -65255,7 +65212,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="6">
         <v>500000</v>
       </c>
@@ -65309,7 +65266,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>271</v>
       </c>
       <c r="B19" s="6">
@@ -65365,7 +65322,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="6">
         <v>30000</v>
       </c>
@@ -65419,7 +65376,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="6">
         <v>50000</v>
       </c>
@@ -65473,7 +65430,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="6">
         <v>70000</v>
       </c>
@@ -65527,7 +65484,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="6">
         <v>90000</v>
       </c>
@@ -65581,27 +65538,27 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="16" t="s">
         <v>262</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="19" t="s">
         <v>539</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="19" t="s">
         <v>581</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
-      <c r="M24" s="16" t="s">
+      <c r="M24" s="19" t="s">
         <v>623</v>
       </c>
       <c r="N24" s="20"/>
@@ -65610,7 +65567,7 @@
       <c r="Q24" s="20"/>
     </row>
     <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="18"/>
       <c r="C25" s="17" t="s">
         <v>264</v>
@@ -65659,7 +65616,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -65678,7 +65635,7 @@
       <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="16" t="s">
         <v>261</v>
       </c>
       <c r="B27" s="6">
@@ -65734,7 +65691,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="6">
         <v>2000</v>
       </c>
@@ -65788,7 +65745,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="6">
         <v>4000</v>
       </c>
@@ -65842,7 +65799,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="6">
         <v>6000</v>
       </c>
@@ -65896,7 +65853,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="6">
         <v>8000</v>
       </c>
@@ -65950,7 +65907,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="16" t="s">
         <v>269</v>
       </c>
       <c r="B32" s="6">
@@ -66006,7 +65963,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="6">
         <v>1000</v>
       </c>
@@ -66060,7 +66017,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="6">
         <v>2000</v>
       </c>
@@ -66114,7 +66071,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="6">
         <v>3000</v>
       </c>
@@ -66168,7 +66125,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="6">
         <v>4000</v>
       </c>
@@ -66222,7 +66179,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="16" t="s">
         <v>270</v>
       </c>
       <c r="B37" s="6">
@@ -66278,7 +66235,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="6">
         <v>50000</v>
       </c>
@@ -66332,7 +66289,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="6">
         <v>100000</v>
       </c>
@@ -66386,7 +66343,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="6">
         <v>300000</v>
       </c>
@@ -66440,7 +66397,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="6">
         <v>500000</v>
       </c>
@@ -66494,7 +66451,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="16" t="s">
         <v>271</v>
       </c>
       <c r="B42" s="6">
@@ -66550,7 +66507,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="6">
         <v>30000</v>
       </c>
@@ -66604,7 +66561,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="6">
         <v>50000</v>
       </c>
@@ -66658,7 +66615,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="6">
         <v>70000</v>
       </c>
@@ -66712,7 +66669,7 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="6">
         <v>90000</v>
       </c>
@@ -66767,34 +66724,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="J25:J26"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="A14:A18"/>
@@ -66810,11 +66744,34 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -66870,41 +66827,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>400</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="19" t="s">
         <v>401</v>
       </c>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="13"/>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="19" t="s">
         <v>402</v>
       </c>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
-      <c r="R1" s="16"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="20"/>
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="18"/>
       <c r="C2" s="17" t="s">
         <v>264</v>
@@ -66958,7 +66915,7 @@
       <c r="V2" s="15"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="18"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -66982,7 +66939,7 @@
       <c r="V3" s="15"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>261</v>
       </c>
       <c r="B4" s="6">
@@ -67043,7 +67000,7 @@
       <c r="V4" s="10"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="6">
         <v>2000</v>
       </c>
@@ -67102,7 +67059,7 @@
       <c r="V5" s="10"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6">
         <v>4000</v>
       </c>
@@ -67161,7 +67118,7 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6">
         <v>6000</v>
       </c>
@@ -67220,7 +67177,7 @@
       <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6">
         <v>8000</v>
       </c>
@@ -67279,7 +67236,7 @@
       <c r="V8" s="10"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>269</v>
       </c>
       <c r="B9" s="6">
@@ -67340,7 +67297,7 @@
       <c r="V9" s="10"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6">
         <v>1000</v>
       </c>
@@ -67399,7 +67356,7 @@
       <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6">
         <v>2000</v>
       </c>
@@ -67458,7 +67415,7 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6">
         <v>3000</v>
       </c>
@@ -67517,7 +67474,7 @@
       <c r="V12" s="10"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6">
         <v>4000</v>
       </c>
@@ -67576,7 +67533,7 @@
       <c r="V13" s="10"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>270</v>
       </c>
       <c r="B14" s="6">
@@ -67637,7 +67594,7 @@
       <c r="V14" s="10"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6">
         <v>50000</v>
       </c>
@@ -67696,7 +67653,7 @@
       <c r="V15" s="10"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6">
         <v>100000</v>
       </c>
@@ -67755,7 +67712,7 @@
       <c r="V16" s="10"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6">
         <v>300000</v>
       </c>
@@ -67813,7 +67770,7 @@
       <c r="V17" s="10"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="6">
         <v>500000</v>
       </c>
@@ -67871,7 +67828,7 @@
       <c r="V18" s="10"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>271</v>
       </c>
       <c r="B19" s="6">
@@ -67932,7 +67889,7 @@
       <c r="V19" s="10"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="6">
         <v>30000</v>
       </c>
@@ -67991,7 +67948,7 @@
       <c r="V20" s="10"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="6">
         <v>50000</v>
       </c>
@@ -68050,7 +68007,7 @@
       <c r="V21" s="10"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="6">
         <v>70000</v>
       </c>
@@ -68109,7 +68066,7 @@
       <c r="V22" s="10"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="6">
         <v>90000</v>
       </c>
@@ -68173,14 +68130,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
@@ -68197,12 +68152,14 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -68248,28 +68205,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="18"/>
       <c r="C2" s="17" t="s">
         <v>264</v>
@@ -68300,7 +68257,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="18"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -68313,7 +68270,7 @@
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>261</v>
       </c>
       <c r="B4" s="6">
@@ -68350,7 +68307,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="6">
         <v>2000</v>
       </c>
@@ -68385,7 +68342,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6">
         <v>4000</v>
       </c>
@@ -68420,7 +68377,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6">
         <v>6000</v>
       </c>
@@ -68455,7 +68412,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6">
         <v>8000</v>
       </c>
@@ -68490,7 +68447,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>269</v>
       </c>
       <c r="B9" s="6">
@@ -68527,7 +68484,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6">
         <v>1000</v>
       </c>
@@ -68562,7 +68519,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6">
         <v>2000</v>
       </c>
@@ -68597,7 +68554,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6">
         <v>3000</v>
       </c>
@@ -68632,7 +68589,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6">
         <v>4000</v>
       </c>
@@ -68667,7 +68624,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>270</v>
       </c>
       <c r="B14" s="6">
@@ -68704,7 +68661,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6">
         <v>50000</v>
       </c>
@@ -68739,7 +68696,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6">
         <v>100000</v>
       </c>
@@ -68774,7 +68731,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6">
         <v>300000</v>
       </c>
@@ -68809,7 +68766,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="6">
         <v>500000</v>
       </c>
@@ -68844,7 +68801,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>271</v>
       </c>
       <c r="B19" s="6">
@@ -68883,7 +68840,7 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="6">
         <v>30000</v>
       </c>
@@ -68920,7 +68877,7 @@
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="6">
         <v>50000</v>
       </c>
@@ -68957,7 +68914,7 @@
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="6">
         <v>70000</v>
       </c>
@@ -68994,7 +68951,7 @@
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="6">
         <v>90000</v>
       </c>
@@ -69032,11 +68989,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A4:A8"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B1:B3"/>
@@ -69049,6 +69001,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A4:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
